--- a/assets/dailyCheck.xlsx
+++ b/assets/dailyCheck.xlsx
@@ -12,14 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="削除車両_20180104" sheetId="1" r:id="rId1"/>
+    <sheet name="削除車両_20171212" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">削除車両_20171212!$AA$1:$AA$58</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="259">
   <si>
     <t>id</t>
   </si>
@@ -87,54 +90,330 @@
     <t>place</t>
   </si>
   <si>
+    <t>2013年</t>
+  </si>
+  <si>
+    <t>スバル</t>
+  </si>
+  <si>
+    <t>インプレッサ ＸＶ ハイブリッド</t>
+  </si>
+  <si>
+    <t>２．０ｉ－Ｌ</t>
+  </si>
+  <si>
+    <t>GPE</t>
+  </si>
+  <si>
+    <t>WT0003</t>
+  </si>
+  <si>
+    <t>GPE-002477</t>
+  </si>
+  <si>
+    <t>表示しない</t>
+  </si>
+  <si>
+    <t>2011年</t>
+  </si>
+  <si>
+    <t>ＢＭＷ</t>
+  </si>
+  <si>
+    <t>ＢＭＷ ミニ クロスオーバー</t>
+  </si>
+  <si>
+    <t>クーパー</t>
+  </si>
+  <si>
+    <t>ZA16</t>
+  </si>
+  <si>
+    <t>WMWZB320X0WH94096</t>
+  </si>
+  <si>
+    <t>Driving Pleasure</t>
+  </si>
+  <si>
+    <t>Fashion</t>
+  </si>
+  <si>
+    <t>トヨタ</t>
+  </si>
+  <si>
+    <t>８６</t>
+  </si>
+  <si>
+    <t>ＧＴ</t>
+  </si>
+  <si>
+    <t>ZN6</t>
+  </si>
+  <si>
+    <t>ZN6-035224</t>
+  </si>
+  <si>
+    <t>MK42S-596678</t>
+  </si>
+  <si>
+    <t>マツダ</t>
+  </si>
+  <si>
+    <t>ＣＸ－５</t>
+  </si>
+  <si>
+    <t>ＸＤ Ｌパッケージ</t>
+  </si>
+  <si>
+    <t>KE2FW</t>
+  </si>
+  <si>
+    <t>KE2FW-117076</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>MK42S-590103</t>
+  </si>
+  <si>
+    <t>WMWZB32040WL97190</t>
+  </si>
+  <si>
     <t>2014年</t>
   </si>
   <si>
+    <t>アクセラ スポーツ</t>
+  </si>
+  <si>
+    <t>１５Ｓ ツーリング</t>
+  </si>
+  <si>
+    <t>BM5FS</t>
+  </si>
+  <si>
+    <t>BM5FS-112796</t>
+  </si>
+  <si>
+    <t>MK21S-957382</t>
+  </si>
+  <si>
     <t>ホンダ</t>
   </si>
   <si>
-    <t>ヴェゼル ハイブリッド</t>
-  </si>
-  <si>
-    <t>Ｚ</t>
-  </si>
-  <si>
-    <t>RU3</t>
-  </si>
-  <si>
-    <t>WT0003</t>
-  </si>
-  <si>
-    <t>RU3-1045484</t>
-  </si>
-  <si>
-    <t>2013年</t>
-  </si>
-  <si>
-    <t>スバル</t>
-  </si>
-  <si>
-    <t>インプレッサ ＸＶ ハイブリッド</t>
-  </si>
-  <si>
-    <t>２．０ｉ－Ｌ</t>
-  </si>
-  <si>
-    <t>GPE</t>
-  </si>
-  <si>
-    <t>GPE-002477</t>
-  </si>
-  <si>
-    <t>表示しない</t>
+    <t>フリード ハイブリット</t>
+  </si>
+  <si>
+    <t>ジャストセレクション＋</t>
+  </si>
+  <si>
+    <t>GP3</t>
+  </si>
+  <si>
+    <t>GP3-1120413</t>
+  </si>
+  <si>
+    <t>2016年</t>
+  </si>
+  <si>
+    <t>エスクァイア</t>
+  </si>
+  <si>
+    <t>Ｇｉ ブラックテーラード</t>
+  </si>
+  <si>
+    <t>ZRR80G</t>
+  </si>
+  <si>
+    <t>ZRR80-0222092</t>
+  </si>
+  <si>
+    <t>2009年</t>
+  </si>
+  <si>
+    <t>ポルテ</t>
+  </si>
+  <si>
+    <t>１５０ｒ Ｇパッケージ</t>
+  </si>
+  <si>
+    <t>NNP11</t>
+  </si>
+  <si>
+    <t>NNP11-5045581</t>
+  </si>
+  <si>
+    <t>Eco &amp; Eco</t>
+  </si>
+  <si>
+    <t>2015年</t>
+  </si>
+  <si>
+    <t>ヴォクシー</t>
+  </si>
+  <si>
+    <t>ＺＳ 煌</t>
+  </si>
+  <si>
+    <t>ZRR80W</t>
+  </si>
+  <si>
+    <t>ZRR80-0188475</t>
+  </si>
+  <si>
+    <t>ＣＲ－Ｚ</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>ZF1</t>
+  </si>
+  <si>
+    <t>ZF1-1023521</t>
+  </si>
+  <si>
+    <t>LA250S-0028833</t>
+  </si>
+  <si>
+    <t>アウディ</t>
+  </si>
+  <si>
+    <t>アウディ Ａ３</t>
+  </si>
+  <si>
+    <t>スポーツバック １．４ ＴＦＳＩ</t>
+  </si>
+  <si>
+    <t>8PCAX</t>
+  </si>
+  <si>
+    <t>WAUZZZ8P1CA030204</t>
+  </si>
+  <si>
+    <t>LA400K-0010302</t>
+  </si>
+  <si>
+    <t>ダイハツ</t>
+  </si>
+  <si>
+    <t>タント</t>
+  </si>
+  <si>
+    <t>カスタム ＲＳ</t>
+  </si>
+  <si>
+    <t>LA600S</t>
+  </si>
+  <si>
+    <t>LA600S-0135561</t>
+  </si>
+  <si>
+    <t>フィット</t>
+  </si>
+  <si>
+    <t>１３Ｇ Ｌパッケージ</t>
+  </si>
+  <si>
+    <t>GK3</t>
+  </si>
+  <si>
+    <t>GK3-1015455</t>
+  </si>
+  <si>
+    <t>L375S-0647880</t>
+  </si>
+  <si>
+    <t>Ｍ・ベンツ</t>
+  </si>
+  <si>
+    <t>Ｍ・ベンツ Ａ１８０</t>
+  </si>
+  <si>
+    <t>スポーツ</t>
+  </si>
+  <si>
+    <t>WDD1760422J138311</t>
+  </si>
+  <si>
+    <t>LA300S-1263437</t>
+  </si>
+  <si>
+    <t>フィット シャトル</t>
+  </si>
+  <si>
+    <t>ハイブリッド スマートセレﾌｧｲﾝﾗｲﾝ</t>
+  </si>
+  <si>
+    <t>GP2</t>
+  </si>
+  <si>
+    <t>GP2-3126571</t>
+  </si>
+  <si>
+    <t>プリウス α</t>
+  </si>
+  <si>
+    <t>Ｇ</t>
+  </si>
+  <si>
+    <t>ZVW41W</t>
+  </si>
+  <si>
+    <t>ZVW41-3241267</t>
+  </si>
+  <si>
+    <t>スズキ</t>
+  </si>
+  <si>
+    <t>パレット ＳＷ</t>
+  </si>
+  <si>
+    <t>ＴＳ</t>
+  </si>
+  <si>
+    <t>MK21S</t>
+  </si>
+  <si>
+    <t>JF1-1487915</t>
+  </si>
+  <si>
+    <t>日産</t>
+  </si>
+  <si>
+    <t>エクストレイル</t>
+  </si>
+  <si>
+    <t>２０Ｘ エマージェンシーブレーキ</t>
+  </si>
+  <si>
+    <t>NT32</t>
+  </si>
+  <si>
+    <t>NT32-015709</t>
+  </si>
+  <si>
+    <t>JF1-4100150</t>
+  </si>
+  <si>
+    <t>デミオ</t>
+  </si>
+  <si>
+    <t>ＸＤ ツーリング</t>
+  </si>
+  <si>
+    <t>DJ5FS</t>
+  </si>
+  <si>
+    <t>DJ5FS-120832</t>
   </si>
   <si>
     <t>2012年</t>
   </si>
   <si>
-    <t>アウディ</t>
-  </si>
-  <si>
     <t>アウディ Ａ１</t>
   </si>
   <si>
@@ -144,13 +423,295 @@
     <t>8XCAX</t>
   </si>
   <si>
-    <t>WAUZZZ8X6DB012924</t>
-  </si>
-  <si>
-    <t>Driving Pleasure</t>
-  </si>
-  <si>
-    <t>Fashion</t>
+    <t>WAUZZZ8X0DB044204</t>
+  </si>
+  <si>
+    <t>Ｍ・ベンツ Ｃ２００</t>
+  </si>
+  <si>
+    <t>アバンギャルド</t>
+  </si>
+  <si>
+    <t>WDD2040482A861702</t>
+  </si>
+  <si>
+    <t>ステップワゴン</t>
+  </si>
+  <si>
+    <t>スパーダ Ｚ</t>
+  </si>
+  <si>
+    <t>RK5</t>
+  </si>
+  <si>
+    <t>RK5-1426492</t>
+  </si>
+  <si>
+    <t>三菱</t>
+  </si>
+  <si>
+    <t>デリカＤ：５</t>
+  </si>
+  <si>
+    <t>シャモニー</t>
+  </si>
+  <si>
+    <t>CV1W</t>
+  </si>
+  <si>
+    <t>CV1W-1100529</t>
+  </si>
+  <si>
+    <t>レクサス</t>
+  </si>
+  <si>
+    <t>ＣＴ</t>
+  </si>
+  <si>
+    <t>２００ｈ Ｆスポーツ</t>
+  </si>
+  <si>
+    <t>ZWA10</t>
+  </si>
+  <si>
+    <t>ZWA10-2118690</t>
+  </si>
+  <si>
+    <t>エルグランド</t>
+  </si>
+  <si>
+    <t>250HWS アーバンクロム</t>
+  </si>
+  <si>
+    <t>TE52</t>
+  </si>
+  <si>
+    <t>TE52-056056</t>
+  </si>
+  <si>
+    <t>Ｎ ＢＯＸ</t>
+  </si>
+  <si>
+    <t>ＳＳパッケージ</t>
+  </si>
+  <si>
+    <t>JF1</t>
+  </si>
+  <si>
+    <t>イグニス ハイブリッド</t>
+  </si>
+  <si>
+    <t>ＭＺ</t>
+  </si>
+  <si>
+    <t>FF21S</t>
+  </si>
+  <si>
+    <t>FF21S-100251</t>
+  </si>
+  <si>
+    <t>2017年</t>
+  </si>
+  <si>
+    <t>２０Ｘtｔ ｴﾏｰｼﾞｪﾝｼｰﾌﾞﾚｰｷ</t>
+  </si>
+  <si>
+    <t>T32</t>
+  </si>
+  <si>
+    <t>T32-017494</t>
+  </si>
+  <si>
+    <t>ＦＪクルーザー</t>
+  </si>
+  <si>
+    <t>カラーパッケージ</t>
+  </si>
+  <si>
+    <t>GSJ15W</t>
+  </si>
+  <si>
+    <t>GSJ15-0128528</t>
+  </si>
+  <si>
+    <t>キャスト</t>
+  </si>
+  <si>
+    <t>スタイル Ｇ ＳＡⅡ</t>
+  </si>
+  <si>
+    <t>LA250S</t>
+  </si>
+  <si>
+    <t>セレナ</t>
+  </si>
+  <si>
+    <t>20Ｘ Vｾﾚ +ｾｰﾌ Sﾊｲﾌﾞﾘｯﾄﾞ</t>
+  </si>
+  <si>
+    <t>HC26</t>
+  </si>
+  <si>
+    <t>HC26-124660</t>
+  </si>
+  <si>
+    <t>フィット ハイブリット</t>
+  </si>
+  <si>
+    <t>スマート セレクション</t>
+  </si>
+  <si>
+    <t>GP1</t>
+  </si>
+  <si>
+    <t>GP1-1240321</t>
+  </si>
+  <si>
+    <t>ＢＭＷ Ｘ１</t>
+  </si>
+  <si>
+    <t>ｓＤｒｉｖｅ １８ｉ Ｘライン</t>
+  </si>
+  <si>
+    <t>VL18</t>
+  </si>
+  <si>
+    <t>WBAVL32070VZ19070</t>
+  </si>
+  <si>
+    <t>2008年</t>
+  </si>
+  <si>
+    <t>マークＸ ジオ</t>
+  </si>
+  <si>
+    <t>２４０Ｆ</t>
+  </si>
+  <si>
+    <t>ANA10</t>
+  </si>
+  <si>
+    <t>ANA10-0014290</t>
+  </si>
+  <si>
+    <t>２００ｈ</t>
+  </si>
+  <si>
+    <t>ZWA10-2129077</t>
+  </si>
+  <si>
+    <t>オデッセイ ハイブリッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RC4</t>
+  </si>
+  <si>
+    <t>RC4-1016459</t>
+  </si>
+  <si>
+    <t>Ｇスペシャル</t>
+  </si>
+  <si>
+    <t>L375S</t>
+  </si>
+  <si>
+    <t>ミラ イース</t>
+  </si>
+  <si>
+    <t>Ｌ</t>
+  </si>
+  <si>
+    <t>LA300S</t>
+  </si>
+  <si>
+    <t>ジャストセレクション</t>
+  </si>
+  <si>
+    <t>GP3-1068726</t>
+  </si>
+  <si>
+    <t>ＢＭＷ ミニ</t>
+  </si>
+  <si>
+    <t>クーパー Ｓ</t>
+  </si>
+  <si>
+    <t>MF16S</t>
+  </si>
+  <si>
+    <t>WMWMF72060TV02772</t>
+  </si>
+  <si>
+    <t>T32-013159</t>
+  </si>
+  <si>
+    <t>スペーシア</t>
+  </si>
+  <si>
+    <t>カスタム ＸＳ</t>
+  </si>
+  <si>
+    <t>MK42S</t>
+  </si>
+  <si>
+    <t>Ｎ ＢＯＸ ＋</t>
+  </si>
+  <si>
+    <t>カスタム Ｇ ターボパッケージ</t>
+  </si>
+  <si>
+    <t>ヴォクシー ハイブリッド</t>
+  </si>
+  <si>
+    <t>Ｖ</t>
+  </si>
+  <si>
+    <t>ZWR80G</t>
+  </si>
+  <si>
+    <t>ZWR80-0040025</t>
+  </si>
+  <si>
+    <t>シエンタ</t>
+  </si>
+  <si>
+    <t>ＤＩＣＥ リミテッド</t>
+  </si>
+  <si>
+    <t>NCP81G</t>
+  </si>
+  <si>
+    <t>NCP81-5172016</t>
+  </si>
+  <si>
+    <t>カスタム ＧＳ</t>
+  </si>
+  <si>
+    <t>コペン</t>
+  </si>
+  <si>
+    <t>ローブ</t>
+  </si>
+  <si>
+    <t>LA400K</t>
+  </si>
+  <si>
+    <t>ANH20-8154423</t>
+  </si>
+  <si>
+    <t>2010年</t>
+  </si>
+  <si>
+    <t>ヴェルファイア</t>
+  </si>
+  <si>
+    <t>２．４Ｚ プラチナセレクションⅡ</t>
+  </si>
+  <si>
+    <t>ANH20W</t>
   </si>
   <si>
     <t>Ｖ・ワーゲン</t>
@@ -168,115 +729,77 @@
     <t>WVWZZZ6RZEU021081</t>
   </si>
   <si>
-    <t>Eco &amp; Eco</t>
-  </si>
-  <si>
-    <t>Ｍ・ベンツ</t>
-  </si>
-  <si>
-    <t>Ｍ・ベンツ Ｃ２００</t>
-  </si>
-  <si>
-    <t>アバンギャルド</t>
-  </si>
-  <si>
-    <t>WDD2040482A861702</t>
-  </si>
-  <si>
-    <t>レガシィ ツーリングワゴン</t>
-  </si>
-  <si>
-    <t>２．５ｉアイサイト</t>
-  </si>
-  <si>
-    <t>BRM</t>
-  </si>
-  <si>
-    <t>BRM-004057</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>2009年</t>
-  </si>
-  <si>
-    <t>トヨタ</t>
-  </si>
-  <si>
-    <t>パッソ</t>
-  </si>
-  <si>
-    <t>Ｘ Ｆパッケージ</t>
-  </si>
-  <si>
-    <t>KGC10</t>
-  </si>
-  <si>
-    <t>KGC10-0236630</t>
-  </si>
-  <si>
-    <t>ダイハツ</t>
-  </si>
-  <si>
-    <t>ミラ イース</t>
-  </si>
-  <si>
-    <t>Ｌ</t>
-  </si>
-  <si>
-    <t>LA300S</t>
-  </si>
-  <si>
-    <t>LA300S-1263437</t>
-  </si>
-  <si>
-    <t>日産</t>
-  </si>
-  <si>
-    <t>デイズ ルークス</t>
-  </si>
-  <si>
-    <t>ハイウェイスターＸ Ｇパッケージ</t>
-  </si>
-  <si>
-    <t>B21A</t>
-  </si>
-  <si>
-    <t>B21A-0045884</t>
-  </si>
-  <si>
-    <t>2006年</t>
-  </si>
-  <si>
-    <t>スズキ</t>
-  </si>
-  <si>
-    <t>エブリィ ワゴン</t>
-  </si>
-  <si>
-    <t>ＰＺターボ スペシャル</t>
-  </si>
-  <si>
-    <t>DA64W</t>
+    <t>アブソルートセンシングＥＸパック</t>
+  </si>
+  <si>
+    <t>NCP141</t>
+  </si>
+  <si>
+    <t>NCP141-9130037</t>
+  </si>
+  <si>
+    <t>ＢＭＷ １１８ｉ</t>
+  </si>
+  <si>
+    <t>Ｍスポーツ</t>
+  </si>
+  <si>
+    <t>1R15</t>
   </si>
   <si>
     <t>イチオシ</t>
   </si>
   <si>
-    <t>大塚 雄記</t>
-  </si>
-  <si>
-    <t>色々なジャンルの中から最高の1台を！</t>
+    <t>杉本 拓耶</t>
+  </si>
+  <si>
+    <t>ご家族の事を考えた最良のご提案を致します</t>
   </si>
   <si>
     <t>WT0001</t>
   </si>
   <si>
+    <t>WBA1R52010V876354</t>
+  </si>
+  <si>
+    <t>シャトル ハイブリッド</t>
+  </si>
+  <si>
+    <t>Ｘ</t>
+  </si>
+  <si>
+    <t>GP7</t>
+  </si>
+  <si>
+    <t>郭　寒寒</t>
+  </si>
+  <si>
+    <t>最高の一台をお選びします！！</t>
+  </si>
+  <si>
+    <t>GP7-1015954</t>
+  </si>
+  <si>
+    <t>稲福 桂太</t>
+  </si>
+  <si>
+    <t>とっておきを一緒に探しましょう！</t>
+  </si>
+  <si>
+    <t>GE6</t>
+  </si>
+  <si>
+    <t>佐藤 竜也</t>
+  </si>
+  <si>
+    <t>一緒に楽しいお車をみつけましょう！！</t>
+  </si>
+  <si>
     <t>WT</t>
   </si>
   <si>
     <t>車台番号</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -295,18 +818,15 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -316,9 +836,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -629,15 +1149,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="27" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="21" max="22" width="17" customWidth="1"/>
+    <col min="25" max="25" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -678,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
@@ -716,7 +1238,7 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>26539</v>
+        <v>25799</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -738,7 +1260,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1">
-        <v>20170430102297</v>
+        <v>20171020300109</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>27</v>
@@ -750,133 +1272,153 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1">
-        <v>51849801</v>
+        <v>51820369</v>
       </c>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="T2" s="1">
         <v>1</v>
       </c>
       <c r="U2" s="5">
-        <v>43104.185416666667</v>
+        <v>43035.301041666666</v>
       </c>
       <c r="V2" s="5">
-        <v>43104.185474537036</v>
-      </c>
+        <v>43081.346990740742</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>26532</v>
+        <v>25818</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1">
-        <v>20171020300109</v>
+        <v>20170627300096</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1">
+        <v>305</v>
+      </c>
       <c r="Q3" s="1">
-        <v>51820369</v>
+        <v>51704872</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T3" s="1">
         <v>1</v>
       </c>
       <c r="U3" s="5">
-        <v>43104.080312500002</v>
+        <v>43038.19027777778</v>
       </c>
       <c r="V3" s="5">
-        <v>43104.080474537041</v>
-      </c>
+        <v>43081.346979166665</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>26531</v>
+        <v>25819</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1">
-        <v>20170831100890</v>
+        <v>20171014300018</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P4" s="1">
-        <v>305</v>
+        <v>503</v>
       </c>
       <c r="Q4" s="1">
-        <v>51766372</v>
+        <v>51811400</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T4" s="1">
         <v>1</v>
       </c>
       <c r="U4" s="5">
-        <v>43104.076273148145</v>
+        <v>43038.192511574074</v>
       </c>
       <c r="V4" s="5">
-        <v>43104.076423611114</v>
-      </c>
+        <v>43081.346967592595</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>26530</v>
+        <v>25822</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -893,8 +1435,12 @@
       <c r="F5" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1">
-        <v>20171128300049</v>
+        <v>20171018300035</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>27</v>
@@ -906,89 +1452,103 @@
         <v>49</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P5" s="1">
-        <v>304</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="1">
-        <v>51855342</v>
-      </c>
+        <v>51814693</v>
+      </c>
+      <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
       </c>
       <c r="U5" s="5">
-        <v>43104.07304398148</v>
+        <v>43038.195185185185</v>
       </c>
       <c r="V5" s="5">
-        <v>43104.073171296295</v>
-      </c>
+        <v>43081.346956018519</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>26529</v>
+        <v>25823</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>20171007100824</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="1">
-        <v>204048</v>
-      </c>
-      <c r="K6" s="1">
-        <v>20170916100664</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P6" s="1">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q6" s="1">
-        <v>51784603</v>
-      </c>
+        <v>51810971</v>
+      </c>
+      <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T6" s="1">
         <v>1</v>
       </c>
       <c r="U6" s="5">
-        <v>43104.069907407407</v>
+        <v>43038.197905092595</v>
       </c>
       <c r="V6" s="5">
-        <v>43104.070138888892</v>
-      </c>
+        <v>43081.346944444442</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>26528</v>
+        <v>25824</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>54</v>
@@ -999,8 +1559,12 @@
       <c r="F7" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <v>20170908300139</v>
+        <v>20170827100222</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>27</v>
@@ -1008,335 +1572,3100 @@
       <c r="M7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="1">
-        <v>203</v>
-      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1">
-        <v>51771166</v>
-      </c>
+        <v>51804301</v>
+      </c>
+      <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T7" s="1">
         <v>1</v>
       </c>
       <c r="U7" s="5">
-        <v>43104.060555555552</v>
+        <v>43038.200324074074</v>
       </c>
       <c r="V7" s="5">
-        <v>43104.060717592591</v>
-      </c>
+        <v>43081.346932870372</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>26527</v>
+        <v>25825</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <v>20171013300036</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="1">
-        <v>20171213100168</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="N8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="P8" s="1">
-        <v>403</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="1">
-        <v>51877402</v>
-      </c>
+        <v>51811545</v>
+      </c>
+      <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T8" s="1">
         <v>1</v>
       </c>
       <c r="U8" s="5">
-        <v>43104.057453703703</v>
+        <v>43038.201655092591</v>
       </c>
       <c r="V8" s="5">
-        <v>43104.057673611111</v>
-      </c>
+        <v>43081.346921296295</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>26522</v>
+        <v>25827</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>20171019300203</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="1">
-        <v>20171112102054</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="1">
-        <v>404</v>
-      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1">
-        <v>51841378</v>
-      </c>
+        <v>51815078</v>
+      </c>
+      <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T9" s="1">
         <v>1</v>
       </c>
       <c r="U9" s="5">
-        <v>43104.045162037037</v>
+        <v>43038.204918981479</v>
       </c>
       <c r="V9" s="5">
-        <v>43104.053888888891</v>
-      </c>
+        <v>43081.346909722219</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>26526</v>
+        <v>25828</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <v>20171012300213</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="1">
-        <v>20171126100752</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="P10" s="1">
+        <v>403</v>
+      </c>
       <c r="Q10" s="1">
-        <v>51853819</v>
-      </c>
+        <v>51808267</v>
+      </c>
+      <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T10" s="1">
         <v>1</v>
       </c>
       <c r="U10" s="5">
-        <v>43104.05363425926</v>
+        <v>43038.333831018521</v>
       </c>
       <c r="V10" s="5">
-        <v>43104.053854166668</v>
-      </c>
+        <v>43081.346909722219</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>26524</v>
+        <v>25849</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1">
-        <v>20171126100752</v>
+        <v>20171002101127</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1">
-        <v>51853819</v>
-      </c>
+        <v>51817889</v>
+      </c>
+      <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T11" s="1">
         <v>1</v>
       </c>
       <c r="U11" s="5">
-        <v>43104.052708333336</v>
+        <v>43040.062071759261</v>
       </c>
       <c r="V11" s="5">
-        <v>43104.053229166668</v>
-      </c>
+        <v>43081.346898148149</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>26525</v>
+        <v>25850</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1">
-        <v>20171126100752</v>
+        <v>20171017100098</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="1">
+        <v>504</v>
+      </c>
       <c r="Q12" s="1">
-        <v>51853819</v>
+        <v>51817902</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="T12" s="1">
         <v>1</v>
       </c>
       <c r="U12" s="5">
-        <v>43104.053113425929</v>
+        <v>43040.072199074071</v>
       </c>
       <c r="V12" s="5">
-        <v>43104.053171296298</v>
-      </c>
+        <v>43081.346886574072</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>26523</v>
+        <v>25851</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>20170917102411</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="1">
+        <v>305</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>51822027</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="5">
+        <v>43040.077418981484</v>
+      </c>
+      <c r="V13" s="5">
+        <v>43081.346875000003</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>25852</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <v>20171018100516</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1">
+        <v>51827032</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="5">
+        <v>43040.090543981481</v>
+      </c>
+      <c r="V14" s="5">
+        <v>43081.346863425926</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>25894</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <v>20171026100580</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1">
+        <v>51827019</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="5">
+        <v>43041.303668981483</v>
+      </c>
+      <c r="V15" s="5">
+        <v>43081.346851851849</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>25900</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="1">
+        <v>176042</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1">
+        <v>20171027300163</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1">
+        <v>51825695</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="5">
+        <v>43041.334594907406</v>
+      </c>
+      <c r="V16" s="5">
+        <v>43081.34684027778</v>
+      </c>
+      <c r="W16" s="1"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>25907</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
+        <v>20171014100674</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="1">
+        <v>503</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>51820063</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="5">
+        <v>43042.074675925927</v>
+      </c>
+      <c r="V17" s="5">
+        <v>43081.346828703703</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>25908</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1">
+        <v>20171027300156</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="1">
+        <v>403</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>51825688</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="5">
+        <v>43042.080509259256</v>
+      </c>
+      <c r="V18" s="5">
+        <v>43081.346828703703</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>25909</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1">
+        <v>20171028100935</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="1">
+        <v>403</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>51827027</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="5">
+        <v>43042.082256944443</v>
+      </c>
+      <c r="V19" s="5">
+        <v>43081.346817129626</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>25910</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1">
+        <v>20171027300168</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1">
+        <v>51825680</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="5">
+        <v>43042.083541666667</v>
+      </c>
+      <c r="V20" s="5">
+        <v>43081.346805555557</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>25911</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="1">
-        <v>110209</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="1">
-        <v>20180103102155</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="1">
-        <v>160424</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1">
+        <v>20171002100096</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1">
+        <v>51810964</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1</v>
+      </c>
+      <c r="U21" s="5">
+        <v>43042.085439814815</v>
+      </c>
+      <c r="V21" s="5">
+        <v>43081.34679398148</v>
+      </c>
+      <c r="W21" s="1"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>25914</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1">
+        <v>20171027300187</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="1">
+        <v>305</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>51825711</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+      <c r="U22" s="5">
+        <v>43042.106041666666</v>
+      </c>
+      <c r="V22" s="5">
+        <v>43081.346782407411</v>
+      </c>
+      <c r="W22" s="1"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>25917</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="1">
+        <v>204048</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1">
+        <v>20170916100664</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="1">
+        <v>303</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>51784603</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+      <c r="U23" s="5">
+        <v>43042.128182870372</v>
+      </c>
+      <c r="V23" s="5">
+        <v>43081.346770833334</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+    </row>
+    <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>25921</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1">
+        <v>20171015102537</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="O24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="1">
+        <v>101</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>51817880</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="5">
+        <v>43042.310057870367</v>
+      </c>
+      <c r="V24" s="5">
+        <v>43081.346759259257</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+    </row>
+    <row r="25" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>25938</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1">
+        <v>20171031300101</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1">
+        <v>51828153</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="5">
+        <v>43043.310381944444</v>
+      </c>
+      <c r="V25" s="5">
+        <v>43081.346747685187</v>
+      </c>
+      <c r="W25" s="1"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+    </row>
+    <row r="26" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25962</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1">
+        <v>20171028300225</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="1">
+        <v>304</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>51825942</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
+      <c r="U26" s="5">
+        <v>43045.331747685188</v>
+      </c>
+      <c r="V26" s="5">
+        <v>43081.346736111111</v>
+      </c>
+      <c r="W26" s="1"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+    </row>
+    <row r="27" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25966</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1">
+        <v>20161002101987</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="1">
+        <v>102</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>51827052</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1</v>
+      </c>
+      <c r="U27" s="5">
+        <v>43046.063194444447</v>
+      </c>
+      <c r="V27" s="5">
+        <v>43081.346724537034</v>
+      </c>
+      <c r="W27" s="1"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+    </row>
+    <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>25967</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1">
+        <v>20171024101086</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P28" s="1">
+        <v>304</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>51825744</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1</v>
+      </c>
+      <c r="U28" s="5">
+        <v>43046.069687499999</v>
+      </c>
+      <c r="V28" s="5">
+        <v>43081.346712962964</v>
+      </c>
+      <c r="W28" s="1"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>25983</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1">
+        <v>20171102300089</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1">
+        <v>51830145</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+      <c r="U29" s="5">
+        <v>43048.190567129626</v>
+      </c>
+      <c r="V29" s="5">
+        <v>43081.346701388888</v>
+      </c>
+      <c r="W29" s="1"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>25985</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1">
+        <v>20171027300143</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1">
+        <v>51825672</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1</v>
+      </c>
+      <c r="U30" s="5">
+        <v>43048.203032407408</v>
+      </c>
+      <c r="V30" s="5">
+        <v>43081.346689814818</v>
+      </c>
+      <c r="W30" s="1"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>25986</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1">
+        <v>20171020100279</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" s="1">
+        <v>202</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>51827009</v>
+      </c>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1</v>
+      </c>
+      <c r="U31" s="5">
+        <v>43048.204675925925</v>
+      </c>
+      <c r="V31" s="5">
+        <v>43081.346678240741</v>
+      </c>
+      <c r="W31" s="1"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>25987</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1">
+        <v>20171027100578</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1">
+        <v>51827000</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1</v>
+      </c>
+      <c r="U32" s="5">
+        <v>43048.20684027778</v>
+      </c>
+      <c r="V32" s="5">
+        <v>43081.346666666665</v>
+      </c>
+      <c r="W32" s="1"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>25988</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1">
+        <v>20171020101278</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1">
+        <v>51829904</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1</v>
+      </c>
+      <c r="U33" s="5">
+        <v>43048.211875000001</v>
+      </c>
+      <c r="V33" s="5">
+        <v>43081.346655092595</v>
+      </c>
+      <c r="W33" s="1"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>26006</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1">
+        <v>20171027100578</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1">
+        <v>51827000</v>
+      </c>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1</v>
+      </c>
+      <c r="U34" s="5">
+        <v>43050.239305555559</v>
+      </c>
+      <c r="V34" s="5">
+        <v>43081.346643518518</v>
+      </c>
+      <c r="W34" s="1"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+    </row>
+    <row r="35" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>26009</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1">
+        <v>20171107300057</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P35" s="1">
+        <v>104</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>51835395</v>
+      </c>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
+      <c r="U35" s="5">
+        <v>43050.24931712963</v>
+      </c>
+      <c r="V35" s="5">
+        <v>43081.346631944441</v>
+      </c>
+      <c r="W35" s="1"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+    </row>
+    <row r="36" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>26027</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1">
+        <v>20171016101902</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="1">
+        <v>302</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>51834110</v>
+      </c>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1</v>
+      </c>
+      <c r="U36" s="5">
+        <v>43052.352627314816</v>
+      </c>
+      <c r="V36" s="5">
+        <v>43081.346620370372</v>
+      </c>
+      <c r="W36" s="1"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>26037</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1">
+        <v>20170909100486</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" s="1">
+        <v>103</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>51780954</v>
+      </c>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T37" s="1">
+        <v>1</v>
+      </c>
+      <c r="U37" s="5">
+        <v>43054.044606481482</v>
+      </c>
+      <c r="V37" s="5">
+        <v>43081.346608796295</v>
+      </c>
+      <c r="W37" s="1"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>26038</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1">
+        <v>20171107300099</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P38" s="1">
+        <v>304</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>51835404</v>
+      </c>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
+      <c r="U38" s="5">
+        <v>43054.163437499999</v>
+      </c>
+      <c r="V38" s="5">
+        <v>43081.346597222226</v>
+      </c>
+      <c r="W38" s="1"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+    </row>
+    <row r="39" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>26039</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1">
+        <v>20171107101688</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1">
+        <v>51839745</v>
+      </c>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T39" s="1">
+        <v>1</v>
+      </c>
+      <c r="U39" s="5">
+        <v>43054.181400462963</v>
+      </c>
+      <c r="V39" s="5">
+        <v>43081.346585648149</v>
+      </c>
+      <c r="W39" s="1"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>26061</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1">
+        <v>20171021100930</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P40" s="1">
+        <v>302</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>51834103</v>
+      </c>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1</v>
+      </c>
+      <c r="U40" s="5">
+        <v>43057.043865740743</v>
+      </c>
+      <c r="V40" s="5">
+        <v>43081.346574074072</v>
+      </c>
+      <c r="W40" s="1"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>26063</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1">
+        <v>20171112102054</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" s="1">
+        <v>404</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>51841378</v>
+      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1</v>
+      </c>
+      <c r="U41" s="5">
+        <v>43057.0469212963</v>
+      </c>
+      <c r="V41" s="5">
+        <v>43081.346562500003</v>
+      </c>
+      <c r="W41" s="1"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+    </row>
+    <row r="42" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>26064</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1">
+        <v>20171103102607</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P42" s="1">
+        <v>503</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>51839737</v>
+      </c>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T42" s="1">
+        <v>1</v>
+      </c>
+      <c r="U42" s="5">
+        <v>43057.04828703704</v>
+      </c>
+      <c r="V42" s="5">
+        <v>43081.346550925926</v>
+      </c>
+      <c r="W42" s="1"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>26065</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="R13" s="1">
-        <v>268</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13" s="1">
-        <v>1</v>
-      </c>
-      <c r="U13" s="5">
-        <v>43104.050578703704</v>
-      </c>
-      <c r="V13" s="5">
-        <v>43104.050891203704</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="F43" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1">
+        <v>20171110300157</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P43" s="1">
+        <v>504</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>51843512</v>
+      </c>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
+      <c r="U43" s="5">
+        <v>43057.049560185187</v>
+      </c>
+      <c r="V43" s="5">
+        <v>43081.34652777778</v>
+      </c>
+      <c r="W43" s="1"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+    </row>
+    <row r="44" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>26079</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1">
+        <v>20171116300082</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1">
+        <v>51843656</v>
+      </c>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T44" s="1">
+        <v>1</v>
+      </c>
+      <c r="U44" s="5">
+        <v>43060.340868055559</v>
+      </c>
+      <c r="V44" s="5">
+        <v>43081.346516203703</v>
+      </c>
+      <c r="W44" s="1"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+    </row>
+    <row r="45" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>26083</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1">
+        <v>20171111103071</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1">
+        <v>51841385</v>
+      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T45" s="1">
+        <v>1</v>
+      </c>
+      <c r="U45" s="5">
+        <v>43061.101203703707</v>
+      </c>
+      <c r="V45" s="5">
+        <v>43081.346504629626</v>
+      </c>
+      <c r="W45" s="1"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+    </row>
+    <row r="46" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>26084</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1">
+        <v>20171102100123</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P46" s="1">
+        <v>304</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>51839749</v>
+      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T46" s="1">
+        <v>1</v>
+      </c>
+      <c r="U46" s="5">
+        <v>43061.114999999998</v>
+      </c>
+      <c r="V46" s="5">
+        <v>43081.346493055556</v>
+      </c>
+      <c r="W46" s="1"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+    </row>
+    <row r="47" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>26085</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1">
+        <v>20171111102944</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1">
+        <v>51841344</v>
+      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T47" s="1">
+        <v>1</v>
+      </c>
+      <c r="U47" s="5">
+        <v>43061.117326388892</v>
+      </c>
+      <c r="V47" s="5">
+        <v>43081.34648148148</v>
+      </c>
+      <c r="W47" s="1"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+    </row>
+    <row r="48" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>26087</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1">
+        <v>20170926100697</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P48" s="1">
+        <v>201</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>51810956</v>
+      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T48" s="1">
+        <v>1</v>
+      </c>
+      <c r="U48" s="5">
+        <v>43061.120474537034</v>
+      </c>
+      <c r="V48" s="5">
+        <v>43081.34646990741</v>
+      </c>
+      <c r="W48" s="1"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+    </row>
+    <row r="49" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>26088</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1">
+        <v>20171029101829</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1">
+        <v>51841372</v>
+      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T49" s="1">
+        <v>1</v>
+      </c>
+      <c r="U49" s="5">
+        <v>43061.12228009259</v>
+      </c>
+      <c r="V49" s="5">
+        <v>43081.346458333333</v>
+      </c>
+      <c r="W49" s="1"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+    </row>
+    <row r="50" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>26089</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1">
+        <v>20171112100745</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1">
+        <v>51841994</v>
+      </c>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T50" s="1">
+        <v>1</v>
+      </c>
+      <c r="U50" s="5">
+        <v>43061.307476851849</v>
+      </c>
+      <c r="V50" s="5">
+        <v>43081.346446759257</v>
+      </c>
+      <c r="W50" s="1"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+    </row>
+    <row r="51" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>26126</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1">
+        <v>20170907300205</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P51" s="1">
+        <v>103</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>51770789</v>
+      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T51" s="1">
+        <v>1</v>
+      </c>
+      <c r="U51" s="5">
+        <v>43065.053148148145</v>
+      </c>
+      <c r="V51" s="5">
+        <v>43081.34642361111</v>
+      </c>
+      <c r="W51" s="1"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+    </row>
+    <row r="52" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>26156</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1">
+        <v>20171128300049</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P52" s="1">
+        <v>304</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>51855342</v>
+      </c>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T52" s="1">
+        <v>1</v>
+      </c>
+      <c r="U52" s="5">
+        <v>43070.217199074075</v>
+      </c>
+      <c r="V52" s="5">
+        <v>43081.346412037034</v>
+      </c>
+      <c r="W52" s="1"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+    </row>
+    <row r="53" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>26157</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1">
+        <v>20171107101688</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1">
+        <v>51839745</v>
+      </c>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T53" s="1">
+        <v>1</v>
+      </c>
+      <c r="U53" s="5">
+        <v>43070.233287037037</v>
+      </c>
+      <c r="V53" s="5">
+        <v>43081.346400462964</v>
+      </c>
+      <c r="W53" s="1"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+    </row>
+    <row r="54" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>26160</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1">
+        <v>20171119100093</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P54" s="1">
+        <v>104</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>51853799</v>
+      </c>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T54" s="1">
+        <v>1</v>
+      </c>
+      <c r="U54" s="5">
+        <v>43070.383067129631</v>
+      </c>
+      <c r="V54" s="5">
+        <v>43081.346388888887</v>
+      </c>
+      <c r="W54" s="1"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+    </row>
+    <row r="55" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>26239</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H55" s="1">
+        <v>140181</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K55" s="1">
+        <v>20171101300150</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1">
+        <v>51838617</v>
+      </c>
+      <c r="R55" s="1">
+        <v>181</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T55" s="1">
+        <v>1</v>
+      </c>
+      <c r="U55" s="5">
+        <v>43081.242129629631</v>
+      </c>
+      <c r="V55" s="5">
+        <v>43081.292962962965</v>
+      </c>
+      <c r="W55" s="1"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>26233</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H56" s="1">
+        <v>130042</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K56" s="1">
+        <v>20171207300178</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P56" s="1">
+        <v>503</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>51863517</v>
+      </c>
+      <c r="R56" s="1">
+        <v>404</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T56" s="1">
+        <v>1</v>
+      </c>
+      <c r="U56" s="5">
+        <v>43080.353136574071</v>
+      </c>
+      <c r="V56" s="5">
+        <v>43081.27138888889</v>
+      </c>
+      <c r="W56" s="1"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>26229</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H57" s="1">
+        <v>130016</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K57" s="1">
+        <v>20171101300150</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1">
+        <v>51838617</v>
+      </c>
+      <c r="R57" s="1">
+        <v>181</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T57" s="1">
+        <v>1</v>
+      </c>
+      <c r="U57" s="5">
+        <v>43080.25203703704</v>
+      </c>
+      <c r="V57" s="5">
+        <v>43081.271365740744</v>
+      </c>
+      <c r="W57" s="1"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+    </row>
+    <row r="58" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>26238</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H58" s="1">
+        <v>161949</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K58" s="1">
+        <v>20171112101995</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M58" s="1">
+        <v>1245401</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P58" s="1">
+        <v>401</v>
+      </c>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1">
+        <v>208</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T58" s="1">
+        <v>1</v>
+      </c>
+      <c r="U58" s="5">
+        <v>43081.206053240741</v>
+      </c>
+      <c r="V58" s="5">
+        <v>43081.271354166667</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="AA1:AA58"/>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
